--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/35.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/35.xlsx
@@ -479,13 +479,13 @@
         <v>-24.9272770765424</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.994964642824254</v>
+        <v>-9.001785732604793</v>
       </c>
       <c r="F2" t="n">
-        <v>5.855582101334259</v>
+        <v>5.854194317233036</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.9242623063504</v>
+        <v>-15.91261015682126</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-24.82927854587784</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.293547701432658</v>
+        <v>-9.297396838468126</v>
       </c>
       <c r="F3" t="n">
-        <v>5.761160413239731</v>
+        <v>5.761003305605629</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.45783592531107</v>
+        <v>-15.4468645755297</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-24.32862156474761</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.349779142137871</v>
+        <v>-9.353589002264814</v>
       </c>
       <c r="F4" t="n">
-        <v>5.898551039260804</v>
+        <v>5.897556024244833</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.68055899790063</v>
+        <v>-14.66945672509085</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-23.41373569225807</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.30033269765855</v>
+        <v>-10.30394617324287</v>
       </c>
       <c r="F5" t="n">
-        <v>5.975978918266772</v>
+        <v>5.97414599586893</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.71616687827625</v>
+        <v>-13.70368991366808</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-22.10421652406889</v>
       </c>
       <c r="E6" t="n">
-        <v>-10.88790215689238</v>
+        <v>-10.89227498604151</v>
       </c>
       <c r="F6" t="n">
-        <v>6.195536836922518</v>
+        <v>6.191949545943885</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.93670353629125</v>
+        <v>-12.92764366272477</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-20.47086837034018</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.70511060797008</v>
+        <v>-11.70954889863342</v>
       </c>
       <c r="F7" t="n">
-        <v>6.51268478096049</v>
+        <v>6.509018936164807</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.62554868360091</v>
+        <v>-11.61516648744742</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-18.57792511431876</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.50734146459684</v>
+        <v>-12.51202850901418</v>
       </c>
       <c r="F8" t="n">
-        <v>6.78005578959422</v>
+        <v>6.776913636912206</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.90316778200583</v>
+        <v>-10.89275940124666</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-16.50809130953954</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.21721921697807</v>
+        <v>-13.22406649136429</v>
       </c>
       <c r="F9" t="n">
-        <v>6.846774164875656</v>
+        <v>6.84331779692544</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.703297503470159</v>
+        <v>-9.69305932264793</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-14.34883672426761</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.25770380071856</v>
+        <v>-14.26474745964741</v>
       </c>
       <c r="F10" t="n">
-        <v>7.005112475443491</v>
+        <v>7.001813215127376</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.081949902904681</v>
+        <v>-9.070677430157955</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-12.1713689625629</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.16866623244587</v>
+        <v>-15.17383769206835</v>
       </c>
       <c r="F11" t="n">
-        <v>7.228362423500604</v>
+        <v>7.225089347790172</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.289459719592161</v>
+        <v>-8.277624277823241</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-10.06776073670758</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.41794686190621</v>
+        <v>-16.42386458279067</v>
       </c>
       <c r="F12" t="n">
-        <v>7.165309893014851</v>
+        <v>7.16211537112147</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.852111343164301</v>
+        <v>-7.840773408903367</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-8.093720534413254</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.37574046089836</v>
+        <v>-17.38246990455901</v>
       </c>
       <c r="F13" t="n">
-        <v>7.051040273812266</v>
+        <v>7.049207351414425</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.562692896545105</v>
+        <v>-7.554575668783235</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.329467219710605</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.73406688072744</v>
+        <v>-18.74207937006658</v>
       </c>
       <c r="F14" t="n">
-        <v>7.066358268137086</v>
+        <v>7.063451776906223</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.643390667907625</v>
+        <v>-6.635718578442375</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.819041361136642</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.80995305135196</v>
+        <v>-19.81838449438204</v>
       </c>
       <c r="F15" t="n">
-        <v>7.037057694377303</v>
+        <v>7.036376894629533</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.180486116332717</v>
+        <v>-6.172355796268005</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.593273115746094</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.78065566094606</v>
+        <v>-20.78786951981185</v>
       </c>
       <c r="F16" t="n">
-        <v>6.934806809183423</v>
+        <v>6.935435239719825</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.57173331110098</v>
+        <v>-5.563891021698786</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.661994783873347</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.84191772929638</v>
+        <v>-21.85065029529181</v>
       </c>
       <c r="F17" t="n">
-        <v>7.245146755743697</v>
+        <v>7.246010847731251</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.637509040577812</v>
+        <v>-5.631264012122308</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.998534157490735</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.69604647438774</v>
+        <v>-22.70548602473663</v>
       </c>
       <c r="F18" t="n">
-        <v>7.622257446796774</v>
+        <v>7.623985630771882</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.104311915045676</v>
+        <v>-5.096639825580424</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.578065379684505</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.31146326176592</v>
+        <v>-23.32187164252509</v>
       </c>
       <c r="F19" t="n">
-        <v>7.933906623641222</v>
+        <v>7.935111115502661</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.230021023578051</v>
+        <v>-4.224849563955569</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.345793365320281</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.20300980837894</v>
+        <v>-24.21387641973757</v>
       </c>
       <c r="F20" t="n">
-        <v>8.143173992263371</v>
+        <v>8.145216391506681</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.771554762666487</v>
+        <v>-3.768150763927639</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.263233242415313</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.35384622941847</v>
+        <v>-24.36294537989346</v>
       </c>
       <c r="F21" t="n">
-        <v>8.002196075263665</v>
+        <v>8.003400567125103</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.720913735274691</v>
+        <v>-3.719316474328</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.285632394695232</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.03075756324423</v>
+        <v>-25.04006619056469</v>
       </c>
       <c r="F22" t="n">
-        <v>8.395776883291633</v>
+        <v>8.397295590421274</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.097972057116402</v>
+        <v>-4.096963949797589</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.377314719147687</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.18177727652354</v>
+        <v>-25.1893577198689</v>
       </c>
       <c r="F23" t="n">
-        <v>8.040242307321721</v>
+        <v>8.042441814199131</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.979277239553313</v>
+        <v>-3.978400055262918</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.513863444837056</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.58763866461705</v>
+        <v>-25.59599155383007</v>
       </c>
       <c r="F24" t="n">
-        <v>8.005338227945678</v>
+        <v>8.008846965107262</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.843523151387456</v>
+        <v>-3.843667166718715</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.673189888750042</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.6352553700524</v>
+        <v>-25.64363444387111</v>
       </c>
       <c r="F25" t="n">
-        <v>8.118743755160711</v>
+        <v>8.123823568663299</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.73197673117595</v>
+        <v>-3.731858900450374</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.843668474243018</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.96583601680599</v>
+        <v>-25.97310224488314</v>
       </c>
       <c r="F26" t="n">
-        <v>8.018456715393089</v>
+        <v>8.023588898107045</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.543146447289734</v>
+        <v>-3.543251185712468</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-2.015669479292646</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.92219937143451</v>
+        <v>-25.9302904145907</v>
       </c>
       <c r="F27" t="n">
-        <v>7.951005171152516</v>
+        <v>7.955351815695969</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.656525789899082</v>
+        <v>-3.657128035829802</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-2.183337763305531</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.87415062000538</v>
+        <v>-25.88086697136318</v>
       </c>
       <c r="F28" t="n">
-        <v>7.817280389927126</v>
+        <v>7.821810326710363</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.885745828052022</v>
+        <v>-3.885209043635511</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.34449811200967</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.76043087752215</v>
+        <v>-25.76519647575653</v>
       </c>
       <c r="F29" t="n">
-        <v>7.768315177299071</v>
+        <v>7.772059575911804</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.674056383404154</v>
+        <v>-3.675758382773578</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-2.496911756844697</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.62374723585453</v>
+        <v>-25.63001844891571</v>
       </c>
       <c r="F30" t="n">
-        <v>7.873315446089713</v>
+        <v>7.876091014292159</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.832879109177132</v>
+        <v>-3.833337339776593</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.642040128564245</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.2917395280912</v>
+        <v>-25.29921523301382</v>
       </c>
       <c r="F31" t="n">
-        <v>7.69549578889339</v>
+        <v>7.699371110534541</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.228017901243267</v>
+        <v>-4.228292839602943</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.782423446768244</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.8667110086374</v>
+        <v>-24.87397723671456</v>
       </c>
       <c r="F32" t="n">
-        <v>7.830425061980219</v>
+        <v>7.835373952454391</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.134879258827228</v>
+        <v>-4.136096842991508</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.919589874108024</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.71967135542197</v>
+        <v>-24.72666264513946</v>
       </c>
       <c r="F33" t="n">
-        <v>7.843203149553744</v>
+        <v>7.848832839775686</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.275529868255891</v>
+        <v>-4.275477499044523</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-3.058142828112475</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.32396959433364</v>
+        <v>-24.3313274685307</v>
       </c>
       <c r="F34" t="n">
-        <v>7.95930569115417</v>
+        <v>7.964830642953379</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.30844391759999</v>
+        <v>-4.308640302142616</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-3.199000494707553</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.17750600244326</v>
+        <v>-24.18320115417941</v>
       </c>
       <c r="F35" t="n">
-        <v>7.85857351308993</v>
+        <v>7.863679511198203</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.4703826114493</v>
+        <v>-4.470317149935092</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-3.344699828762355</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.82664537858784</v>
+        <v>-23.8331915300087</v>
       </c>
       <c r="F36" t="n">
-        <v>8.005312043339996</v>
+        <v>8.009580134066399</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.407330080963547</v>
+        <v>-4.406086312193583</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-3.494022499835802</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.25203729916732</v>
+        <v>-23.25701237424718</v>
       </c>
       <c r="F37" t="n">
-        <v>7.969779533427551</v>
+        <v>7.97378577809712</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.524650206728254</v>
+        <v>-4.52279109972473</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-3.646011085204489</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.74553537912947</v>
+        <v>-22.75180659219065</v>
       </c>
       <c r="F38" t="n">
-        <v>7.948465264401221</v>
+        <v>7.953361785664026</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.476850209053112</v>
+        <v>-4.478133254731602</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-3.797557079767039</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.56171944723163</v>
+        <v>-22.56772881423598</v>
       </c>
       <c r="F39" t="n">
-        <v>8.117094125002653</v>
+        <v>8.121178923489271</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.69998232638465</v>
+        <v>-4.702299663987636</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-3.942697410924438</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.85744520046666</v>
+        <v>-21.86421392103583</v>
       </c>
       <c r="F40" t="n">
-        <v>8.387057409599045</v>
+        <v>8.391534977170915</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.662328863411846</v>
+        <v>-4.664122508901162</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.077124679277363</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.18668724897651</v>
+        <v>-21.19285372361496</v>
       </c>
       <c r="F41" t="n">
-        <v>8.37412221439142</v>
+        <v>8.378364120512138</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.690411853007348</v>
+        <v>-4.69232332922224</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-4.192298176058523</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.48116923344158</v>
+        <v>-20.48758446183402</v>
       </c>
       <c r="F42" t="n">
-        <v>8.381244427137318</v>
+        <v>8.384281841396598</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.035223832949888</v>
+        <v>-5.036035555726075</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-4.283562881685728</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.64317020545122</v>
+        <v>-19.64954615693514</v>
       </c>
       <c r="F43" t="n">
-        <v>8.495147461860334</v>
+        <v>8.498001583879832</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.190708021498226</v>
+        <v>-5.191716128817039</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.345060188661543</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.94938289326247</v>
+        <v>-18.9573953826016</v>
       </c>
       <c r="F44" t="n">
-        <v>8.276034681501207</v>
+        <v>8.277239173362647</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.986245528018991</v>
+        <v>-4.987266727640645</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.377117983523303</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.49798647588544</v>
+        <v>-18.50277825872551</v>
       </c>
       <c r="F45" t="n">
-        <v>8.323481186999622</v>
+        <v>8.324633309649695</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.195146312161572</v>
+        <v>-5.192619497713118</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.382992718328822</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.8112297303227</v>
+        <v>-17.81819483543449</v>
       </c>
       <c r="F46" t="n">
-        <v>8.412796876985878</v>
+        <v>8.412116077238109</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.335796921590235</v>
+        <v>-5.332445292062753</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.368678661834233</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.65797123325745</v>
+        <v>-17.66547312278576</v>
       </c>
       <c r="F47" t="n">
-        <v>8.267577053865452</v>
+        <v>8.268414961247323</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.627676721143676</v>
+        <v>-5.625032075969647</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.346850248194736</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.0216984074524</v>
+        <v>-17.02800889742212</v>
       </c>
       <c r="F48" t="n">
-        <v>8.218271441363513</v>
+        <v>8.217852487672577</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.720042917692053</v>
+        <v>-5.717791041603276</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.328292811093532</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.15289319087546</v>
+        <v>-16.15972737295884</v>
       </c>
       <c r="F49" t="n">
-        <v>8.149117897753515</v>
+        <v>8.149432113021716</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.95417256941064</v>
+        <v>-5.949118940513734</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.328919275717154</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.59598590489696</v>
+        <v>-15.60313430224854</v>
       </c>
       <c r="F50" t="n">
-        <v>7.896855406599137</v>
+        <v>7.896933960416187</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.179569655133796</v>
+        <v>-6.175209918287502</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.35890294696714</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.87804329396523</v>
+        <v>-14.88519169131681</v>
       </c>
       <c r="F51" t="n">
-        <v>7.727336269404468</v>
+        <v>7.727100607953317</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.125681736637252</v>
+        <v>-6.121740953481893</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.427841130032113</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.19246485565824</v>
+        <v>-14.20055589881443</v>
       </c>
       <c r="F52" t="n">
-        <v>7.598534194047567</v>
+        <v>7.598036686539581</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.311396052447136</v>
+        <v>-6.305491423865518</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.540584564423546</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.70922795777013</v>
+        <v>-13.71670366269276</v>
       </c>
       <c r="F53" t="n">
-        <v>7.645378453615263</v>
+        <v>7.644985684530011</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.339819441916523</v>
+        <v>-6.334857459139509</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.696161400086114</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.25815884796415</v>
+        <v>-13.26696996777663</v>
       </c>
       <c r="F54" t="n">
-        <v>7.427862934202826</v>
+        <v>7.427496349723257</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.563763282024248</v>
+        <v>-6.558735837733025</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.895290990260706</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.65990606961147</v>
+        <v>-12.66952891220014</v>
       </c>
       <c r="F55" t="n">
-        <v>7.394425192745057</v>
+        <v>7.393246885489302</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.891555268272543</v>
+        <v>-6.886265977924486</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.129972766050273</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.37778003567512</v>
+        <v>-12.38672207851602</v>
       </c>
       <c r="F56" t="n">
-        <v>7.433990131932753</v>
+        <v>7.433911578115703</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.848651791860207</v>
+        <v>-6.842576963341646</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.396109224239509</v>
       </c>
       <c r="E57" t="n">
-        <v>-11.92308435798197</v>
+        <v>-11.93162053943478</v>
       </c>
       <c r="F57" t="n">
-        <v>7.078848325048092</v>
+        <v>7.078769771231042</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.095258408186959</v>
+        <v>-7.087992180109802</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.684067745800916</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.49994113013739</v>
+        <v>-11.50758703499695</v>
       </c>
       <c r="F58" t="n">
-        <v>7.235379897823769</v>
+        <v>7.234620544258949</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.840917424234625</v>
+        <v>-7.834855688018907</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.98614534347722</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.47036561801793</v>
+        <v>-11.4783257381457</v>
       </c>
       <c r="F59" t="n">
-        <v>7.084713676721186</v>
+        <v>7.08481841514392</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.846088883857107</v>
+        <v>-7.840629393572108</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.29574225940492</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.23297598289175</v>
+        <v>-11.24259882548042</v>
       </c>
       <c r="F60" t="n">
-        <v>6.940384130193998</v>
+        <v>6.939729515051911</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.090168685735406</v>
+        <v>-8.083779641948643</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.603696328160577</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.29073922302944</v>
+        <v>-11.29868625085437</v>
       </c>
       <c r="F61" t="n">
-        <v>6.767382440443429</v>
+        <v>6.766911117541127</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.563049572075711</v>
+        <v>-8.5553905749133</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.909578524863188</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.36519514929034</v>
+        <v>-11.37472634575912</v>
       </c>
       <c r="F62" t="n">
-        <v>6.789875016725515</v>
+        <v>6.790529631867601</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.789742795780198</v>
+        <v>-8.782751506062716</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.20640314866019</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.01415123319514</v>
+        <v>-11.02216372253428</v>
       </c>
       <c r="F63" t="n">
-        <v>7.110584067136436</v>
+        <v>7.111343420701257</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.827815212443937</v>
+        <v>-8.822211706827678</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.495589967117155</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.77013689283105</v>
+        <v>-10.77639501358939</v>
       </c>
       <c r="F64" t="n">
-        <v>6.952874187105004</v>
+        <v>6.95420960199486</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.063345740566589</v>
+        <v>-9.056472281574683</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.775444595810346</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.80085143529774</v>
+        <v>-10.80637638709695</v>
       </c>
       <c r="F65" t="n">
-        <v>6.927501304197739</v>
+        <v>6.928758165270545</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.132669484113528</v>
+        <v>-9.125206871493745</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.04624352025321</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.51604147927883</v>
+        <v>-10.52177590792351</v>
       </c>
       <c r="F66" t="n">
-        <v>6.757327551860984</v>
+        <v>6.75798216700307</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.519782694537685</v>
+        <v>-9.512568835671894</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.311548038526489</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.75526403680285</v>
+        <v>-10.75987252740314</v>
       </c>
       <c r="F67" t="n">
-        <v>6.511375550676318</v>
+        <v>6.512815703988908</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.573042182497826</v>
+        <v>-9.565252262306998</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.570014707028115</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.90438536617011</v>
+        <v>-10.90950445658122</v>
       </c>
       <c r="F68" t="n">
-        <v>6.48393408392006</v>
+        <v>6.484745806696247</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.39421441798269</v>
+        <v>-9.386908912997006</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.829374599107332</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.70412550190307</v>
+        <v>-10.70966354600512</v>
       </c>
       <c r="F69" t="n">
-        <v>6.486997682785024</v>
+        <v>6.485793190923585</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.409885904484236</v>
+        <v>-9.400459446438193</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.088326863321173</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.96170346801119</v>
+        <v>-10.96695348145072</v>
       </c>
       <c r="F70" t="n">
-        <v>6.269639271006687</v>
+        <v>6.271000870502227</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.517779572202901</v>
+        <v>-9.509413590687037</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.35342754669586</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.92291097469115</v>
+        <v>-10.92825263425057</v>
       </c>
       <c r="F71" t="n">
-        <v>5.946442683055838</v>
+        <v>5.945500037251233</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.490076259389808</v>
+        <v>-9.480990201217651</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.625829717968628</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.96550023583529</v>
+        <v>-10.97008254182989</v>
       </c>
       <c r="F72" t="n">
-        <v>6.177914597297555</v>
+        <v>6.177678935846403</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.769269617489616</v>
+        <v>-9.759568221083898</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.907671791651403</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.40424948866721</v>
+        <v>-11.4087008716334</v>
       </c>
       <c r="F73" t="n">
-        <v>6.291398678329636</v>
+        <v>6.292184216500139</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.509060098510311</v>
+        <v>-9.498049471820419</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.20213356578353</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.52841688881814</v>
+        <v>-11.53411204055429</v>
       </c>
       <c r="F74" t="n">
-        <v>6.260317551383379</v>
+        <v>6.259401090184458</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.579496687798796</v>
+        <v>-9.569179953159518</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.50542823772411</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.05824929251995</v>
+        <v>-12.06330292141686</v>
       </c>
       <c r="F75" t="n">
         <v>6.214075537746402</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.74692105653879</v>
+        <v>-9.736342475842676</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.81886195771442</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.96551651149201</v>
+        <v>-11.96960130997862</v>
       </c>
       <c r="F76" t="n">
-        <v>6.101560287124609</v>
+        <v>6.102083979238278</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.789994732888069</v>
+        <v>-9.78007076733404</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-11.1313153926314</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.65692102456356</v>
+        <v>-12.66147714595248</v>
       </c>
       <c r="F77" t="n">
-        <v>6.069248483711228</v>
+        <v>6.069117560682811</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.550065191010598</v>
+        <v>-9.538910548989447</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-11.43765186801439</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.35466221221051</v>
+        <v>-13.3590219490568</v>
       </c>
       <c r="F78" t="n">
-        <v>6.135050397793743</v>
+        <v>6.133688798298204</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.93189902003566</v>
+        <v>-8.921241885522495</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-11.72377750679516</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.61997772929809</v>
+        <v>-13.62393160475629</v>
       </c>
       <c r="F79" t="n">
-        <v>6.333974847170929</v>
+        <v>6.331225463574166</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.145997448406405</v>
+        <v>-9.134999914019355</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-11.97602484486025</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.21535020102558</v>
+        <v>-14.21916006115252</v>
       </c>
       <c r="F80" t="n">
-        <v>6.342118259538483</v>
+        <v>6.338452414742799</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.563232864315495</v>
+        <v>-8.552182960717078</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-12.17862693991686</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.8118617031003</v>
+        <v>-14.81445397906297</v>
       </c>
       <c r="F81" t="n">
-        <v>6.437482593437616</v>
+        <v>6.434392809966968</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.427727529903629</v>
+        <v>-8.41544694983809</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-12.3116589520145</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.65930028143955</v>
+        <v>-15.66195801891642</v>
       </c>
       <c r="F82" t="n">
-        <v>6.44442151394373</v>
+        <v>6.442955176025457</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.321679876885648</v>
+        <v>-8.308901789312124</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-12.35999615312008</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.6875959312344</v>
+        <v>-16.68855166934184</v>
       </c>
       <c r="F83" t="n">
-        <v>6.623602770635594</v>
+        <v>6.620512987164946</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.185349727394755</v>
+        <v>-8.172650193638281</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-12.30419904860507</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.62082837009547</v>
+        <v>-17.61900854000047</v>
       </c>
       <c r="F84" t="n">
-        <v>6.569400636870848</v>
+        <v>6.565970453526315</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.823831969026173</v>
+        <v>-7.813017726878908</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-12.13712026377887</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.47012605543824</v>
+        <v>-18.46978565556436</v>
       </c>
       <c r="F85" t="n">
-        <v>6.791158062404004</v>
+        <v>6.785659295210479</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.601053343871363</v>
+        <v>-7.58988560954737</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-11.84789700401246</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.7442296910865</v>
+        <v>-19.74463555247459</v>
       </c>
       <c r="F86" t="n">
-        <v>6.66256546389257</v>
+        <v>6.656831035247894</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.624475473655211</v>
+        <v>-7.613818339142045</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-11.44010019634455</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.79775420845736</v>
+        <v>-20.79762328542894</v>
       </c>
       <c r="F87" t="n">
-        <v>6.742114295958898</v>
+        <v>6.736720267188106</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.095323869701168</v>
+        <v>-7.084575089068111</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-10.91766136122658</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.15195655289129</v>
+        <v>-22.14958684607694</v>
       </c>
       <c r="F88" t="n">
-        <v>7.041613815766223</v>
+        <v>7.037398094251188</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.155378262836165</v>
+        <v>-7.145375743465086</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-10.29569228945084</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.79246137586809</v>
+        <v>-23.79112596097823</v>
       </c>
       <c r="F89" t="n">
-        <v>6.887203196050906</v>
+        <v>6.881442582800546</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.824300108574596</v>
+        <v>-6.815868665544525</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-9.594546966560671</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.05101135574038</v>
+        <v>-25.04900823340559</v>
       </c>
       <c r="F90" t="n">
-        <v>7.172484474972117</v>
+        <v>7.168190199640031</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.230370973513573</v>
+        <v>-7.220643392502169</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-8.833591866137109</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.79071655734894</v>
+        <v>-26.78828138902038</v>
       </c>
       <c r="F91" t="n">
-        <v>7.287461078528155</v>
+        <v>7.280260311965206</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.758000686984095</v>
+        <v>-6.751035581872298</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-8.041298273729304</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.78147975825044</v>
+        <v>-28.77828523635705</v>
       </c>
       <c r="F92" t="n">
-        <v>7.008752135633491</v>
+        <v>7.001106230773923</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.015814314543365</v>
+        <v>-7.007919655929805</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-7.232715609470093</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.64896583559424</v>
+        <v>-30.64455372953658</v>
       </c>
       <c r="F93" t="n">
-        <v>7.038236001633058</v>
+        <v>7.030799573618958</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.296837411687137</v>
+        <v>-6.289649737427029</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.433843124690695</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.64253078930387</v>
+        <v>-32.63644286848247</v>
       </c>
       <c r="F94" t="n">
-        <v>6.994062571845074</v>
+        <v>6.987516420424211</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.642146899137662</v>
+        <v>-6.636150624436151</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-5.654541502669187</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.97481980213463</v>
+        <v>-34.96892826585586</v>
       </c>
       <c r="F95" t="n">
-        <v>6.954654740291478</v>
+        <v>6.948841757829753</v>
       </c>
       <c r="G95" t="n">
-        <v>-6.021349175291537</v>
+        <v>-6.016832330811141</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.904120771960153</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.40507851713004</v>
+        <v>-37.39859782722338</v>
       </c>
       <c r="F96" t="n">
-        <v>6.723104272232711</v>
+        <v>6.715563105795877</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.96031285944341</v>
+        <v>-5.955442522786288</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.189555945394773</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.3927257499552</v>
+        <v>-39.38535478345531</v>
       </c>
       <c r="F97" t="n">
-        <v>6.648661438274657</v>
+        <v>6.64284845581293</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.546727012673283</v>
+        <v>-5.543178998603175</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.500074402823037</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.8094601161151</v>
+        <v>-41.80182730355838</v>
       </c>
       <c r="F98" t="n">
-        <v>6.573878204442718</v>
+        <v>6.567174945387754</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.736617773089678</v>
+        <v>-5.732336590060434</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.848164261334138</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.1529299555727</v>
+        <v>-44.14870114175483</v>
       </c>
       <c r="F99" t="n">
-        <v>6.405799220560638</v>
+        <v>6.398938853871575</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.469050379913322</v>
+        <v>-5.466575934676237</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.207609311798673</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.27563738451312</v>
+        <v>-46.27173587826628</v>
       </c>
       <c r="F100" t="n">
-        <v>6.135835935964247</v>
+        <v>6.130022953502521</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.538518138791521</v>
+        <v>-5.534813017087313</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.61261168772347</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.7158986188796</v>
+        <v>-48.70948339048715</v>
       </c>
       <c r="F101" t="n">
-        <v>6.105016655074824</v>
+        <v>6.099386964852882</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.559832407817851</v>
+        <v>-5.55587853235965</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-1.019635716025213</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.17014243268104</v>
+        <v>-51.1658612496518</v>
       </c>
       <c r="F102" t="n">
-        <v>5.391564704017804</v>
+        <v>5.385751721556077</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.239044803589879</v>
+        <v>-5.237015496649412</v>
       </c>
     </row>
   </sheetData>
